--- a/src/APSSystem.Presentation.WPF/Data/Backlog/Recursos.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Backlog/Recursos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\APSSystem\src\Presentation\Data\CenarioBacklog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F961E2-CF10-450F-A571-2C988DF412BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C4FD97-009B-4160-AB25-4E29D14E6B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31890" yWindow="4065" windowWidth="18180" windowHeight="9885" xr2:uid="{BE9E9A5A-8528-4279-9018-52A1C569EF13}"/>
+    <workbookView xWindow="39060" yWindow="10395" windowWidth="18180" windowHeight="9885" xr2:uid="{BE9E9A5A-8528-4279-9018-52A1C569EF13}"/>
   </bookViews>
   <sheets>
     <sheet name="machine" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>ASHE1</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CAL-24x5</t>
-  </si>
-  <si>
-    <t>CAL-PADRAO-5x8</t>
   </si>
   <si>
     <t>Sliter 1</t>
@@ -434,7 +431,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,13 +448,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -472,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -480,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>16.670000000000002</v>
@@ -498,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -506,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>18.329999999999998</v>
@@ -532,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>20</v>

--- a/src/APSSystem.Presentation.WPF/Data/Backlog/Recursos.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Backlog/Recursos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C4FD97-009B-4160-AB25-4E29D14E6B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9D8E33-0647-48E9-BC57-98AB521B6445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39060" yWindow="10395" windowWidth="18180" windowHeight="9885" xr2:uid="{BE9E9A5A-8528-4279-9018-52A1C569EF13}"/>
+    <workbookView xWindow="24345" yWindow="15810" windowWidth="18180" windowHeight="9885" xr2:uid="{BE9E9A5A-8528-4279-9018-52A1C569EF13}"/>
   </bookViews>
   <sheets>
     <sheet name="machine" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>CustoPorHora</t>
   </si>
   <si>
-    <t>CAL-24x5</t>
-  </si>
-  <si>
     <t>Sliter 1</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>VelocidadePolPorMinuto</t>
+  </si>
+  <si>
+    <t>CAL-PADRAO-5x8</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,13 +448,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -469,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>16.670000000000002</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>0.9</v>
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -503,10 +503,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>18.329999999999998</v>
+        <v>1000</v>
       </c>
       <c r="D3">
         <v>0.8</v>
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -529,10 +529,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="D4">
         <v>0.7</v>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/src/APSSystem.Presentation.WPF/Data/Backlog/Recursos.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Backlog/Recursos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9D8E33-0647-48E9-BC57-98AB521B6445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2204CC-9EA2-47CD-86F6-60DE57DCBF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24345" yWindow="15810" windowWidth="18180" windowHeight="9885" xr2:uid="{BE9E9A5A-8528-4279-9018-52A1C569EF13}"/>
+    <workbookView xWindow="34905" yWindow="5490" windowWidth="22320" windowHeight="15300" xr2:uid="{BE9E9A5A-8528-4279-9018-52A1C569EF13}"/>
   </bookViews>
   <sheets>
     <sheet name="machine" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/APSSystem.Presentation.WPF/Data/Backlog/Recursos.xlsx
+++ b/src/APSSystem.Presentation.WPF/Data/Backlog/Recursos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55159\source\repos\APSSystem_NOVO\src\APSSystem.Presentation.WPF\Data\Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2204CC-9EA2-47CD-86F6-60DE57DCBF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7705E4E-5F8D-4F5A-8B69-9672314D8EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34905" yWindow="5490" windowWidth="22320" windowHeight="15300" xr2:uid="{BE9E9A5A-8528-4279-9018-52A1C569EF13}"/>
+    <workbookView xWindow="25905" yWindow="15105" windowWidth="27855" windowHeight="16095" xr2:uid="{BE9E9A5A-8528-4279-9018-52A1C569EF13}"/>
   </bookViews>
   <sheets>
     <sheet name="machine" sheetId="1" r:id="rId1"/>
+    <sheet name="machine (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>ASHE1</t>
   </si>
@@ -70,6 +71,9 @@
   </si>
   <si>
     <t>CAL-PADRAO-5x8</t>
+  </si>
+  <si>
+    <t>CAL-24x5</t>
   </si>
 </sst>
 </file>
@@ -428,10 +432,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC5CD8A-5F0F-4FD0-8B93-7C8E0EF73F21}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,63 +499,166 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1000</v>
       </c>
       <c r="D3">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E3">
         <v>15</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1000</v>
-      </c>
-      <c r="D4">
-        <v>0.7</v>
-      </c>
-      <c r="E4">
         <v>15</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798C5D3B-E0C7-4D73-B787-84CDED312CC4}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>